--- a/src/test/resources/user_insert_01.xlsx
+++ b/src/test/resources/user_insert_01.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7063C8B9-D871-4C97-B128-934A45800845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -14,62 +15,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>zipcode</t>
+    <t>yamada@example.com</t>
+  </si>
+  <si>
+    <t>user_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストユーザ</t>
-  </si>
-  <si>
-    <t>テスト住所</t>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>山田太郎</t>
-  </si>
-  <si>
-    <t>yamada@example.com</t>
-  </si>
-  <si>
-    <t>111-1111</t>
-  </si>
-  <si>
-    <t>東京都新宿区</t>
-  </si>
-  <si>
-    <t>address</t>
+    <rPh sb="0" eb="4">
+      <t>ヤマダタロウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>telephone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coffeeshop.test@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト電話番号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>080-0000-0000</t>
+    <t>TestPassword1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,12 +95,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,55 +438,26 @@
     <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>1111111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
